--- a/Report/Results.xlsx
+++ b/Report/Results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="108">
   <si>
     <t>PARTICIPANTS</t>
   </si>
@@ -46,9 +46,6 @@
     <t>Sex (M/F)</t>
   </si>
   <si>
-    <t>Lars Englund</t>
-  </si>
-  <si>
     <t>NG</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
     <t>Robocraft, WoW</t>
   </si>
   <si>
-    <t>William Jarneklo</t>
-  </si>
-  <si>
     <t>Bär glasögon</t>
   </si>
   <si>
@@ -88,9 +82,6 @@
     <t xml:space="preserve">WoW, Gears of War, Mass Effect, GTA, Uncharted, Dark Souls, Demon Souls, Body Harvest, Super Mario (64, Galaxy), Jet Force Gemini </t>
   </si>
   <si>
-    <t>Andreas Lindfors</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -100,18 +91,12 @@
     <t>Mario Kart, Diablo 2</t>
   </si>
   <si>
-    <t>Emil Eriksson</t>
-  </si>
-  <si>
     <t>The third-person view (att se linjen)</t>
   </si>
   <si>
     <t>GTA, Skyrim, Shadows of Mordor, CoD, Fable, FIFA</t>
   </si>
   <si>
-    <t>Linnea Holmertz</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -121,9 +106,6 @@
     <t>The Sims</t>
   </si>
   <si>
-    <t>Albin Hübsch</t>
-  </si>
-  <si>
     <t>The third-person view, The first-person view, Resolution in the goggles</t>
   </si>
   <si>
@@ -133,36 +115,24 @@
     <t>Halo, Star Wars</t>
   </si>
   <si>
-    <t>Victor Winnhed</t>
-  </si>
-  <si>
     <t>The third-person view, The first-person view, Feld dizzy at some points</t>
   </si>
   <si>
     <t>GTA, Uncharted</t>
   </si>
   <si>
-    <t>Petra Andersson</t>
-  </si>
-  <si>
     <t xml:space="preserve">The third-person view (balans) </t>
   </si>
   <si>
     <t>Tony Hawk, Crash Bandicoot</t>
   </si>
   <si>
-    <t>Mattias Edin</t>
-  </si>
-  <si>
     <t>The third-person view, Svårt att avgöra vilken riktning man går i tredje-person</t>
   </si>
   <si>
     <t>Skyrim, Fallout, GTA</t>
   </si>
   <si>
-    <t>Anton Jonsson</t>
-  </si>
-  <si>
     <t>Spelar fotboll, bär glasögon</t>
   </si>
   <si>
@@ -172,27 +142,18 @@
     <t>WoW, Halo, Star Wars, Diablo (1, 2, 3)</t>
   </si>
   <si>
-    <t>Bernhard Bergström</t>
-  </si>
-  <si>
     <t>The third-person view, FPS was too low, Illamående</t>
   </si>
   <si>
     <t>Diablo (2, 3), Star Wars, WoW, Halo</t>
   </si>
   <si>
-    <t>Mikael Karlsson</t>
-  </si>
-  <si>
     <t>The third-person view (walking the line)</t>
   </si>
   <si>
     <t>The Witcher, Batman Arkham series, Star Wars Battlefront</t>
   </si>
   <si>
-    <t>Andreas Grünewald</t>
-  </si>
-  <si>
     <t>Aningen stressad</t>
   </si>
   <si>
@@ -202,9 +163,6 @@
     <t>GTA (Vice City, San Andreas, IV, V), Forza Motorsport (3,4), Need For Speed, Star Wars pod-racing</t>
   </si>
   <si>
-    <t>Arvid Bräne</t>
-  </si>
-  <si>
     <t>The third-person view (walking the line, träffa stolen med bollen)</t>
   </si>
   <si>
@@ -247,6 +205,9 @@
     <t>Avrage</t>
   </si>
   <si>
+    <t>Average increase</t>
+  </si>
+  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -307,9 +268,6 @@
     <t>"Konstigt att man ändå har balans"</t>
   </si>
   <si>
-    <t>Spelar basket</t>
-  </si>
-  <si>
     <t>"Känns som ett dåligt spel man spelat"</t>
   </si>
   <si>
@@ -371,6 +329,12 @@
   </si>
   <si>
     <t>Svårt med djupseendet via kameran</t>
+  </si>
+  <si>
+    <t>Normalitetstest (TP, gamers)</t>
+  </si>
+  <si>
+    <t>Normalitetstest (TP, non-gamers)</t>
   </si>
   <si>
     <t>30 sek på filmade</t>
@@ -502,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -596,6 +560,10 @@
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -637,7 +605,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Task 1 Accuracy Test '!$M$2</c:f>
+              <c:f>'Task 1 Accuracy Test '!$N$2</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -664,12 +632,12 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Task 1 Accuracy Test '!$L$3:$L$5</c:f>
+              <c:f>'Task 1 Accuracy Test '!$M$3:$M$5</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Task 1 Accuracy Test '!$M$3:$M$5</c:f>
+              <c:f>'Task 1 Accuracy Test '!$N$3:$N$5</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -678,7 +646,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Task 1 Accuracy Test '!$N$2</c:f>
+              <c:f>'Task 1 Accuracy Test '!$O$2</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -705,20 +673,20 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Task 1 Accuracy Test '!$L$3:$L$5</c:f>
+              <c:f>'Task 1 Accuracy Test '!$M$3:$M$5</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Task 1 Accuracy Test '!$N$3:$N$5</c:f>
+              <c:f>'Task 1 Accuracy Test '!$O$3:$O$5</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1104291094"/>
-        <c:axId val="1127342693"/>
+        <c:axId val="2001629578"/>
+        <c:axId val="289451447"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1104291094"/>
+        <c:axId val="2001629578"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -750,10 +718,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1127342693"/>
+        <c:crossAx val="289451447"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1127342693"/>
+        <c:axId val="289451447"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -801,7 +769,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1104291094"/>
+        <c:crossAx val="2001629578"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -846,7 +814,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Task 1 Accuracy Test '!$I$2</c:f>
+              <c:f>'Task 1 Accuracy Test '!$J$2</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -873,12 +841,12 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Task 1 Accuracy Test '!$H$3:$H$5</c:f>
+              <c:f>'Task 1 Accuracy Test '!$I$3:$I$5</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Task 1 Accuracy Test '!$I$3:$I$5</c:f>
+              <c:f>'Task 1 Accuracy Test '!$J$3:$J$5</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -887,7 +855,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Task 1 Accuracy Test '!$J$2</c:f>
+              <c:f>'Task 1 Accuracy Test '!$K$2</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -914,20 +882,20 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Task 1 Accuracy Test '!$H$3:$H$5</c:f>
+              <c:f>'Task 1 Accuracy Test '!$I$3:$I$5</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Task 1 Accuracy Test '!$J$3:$J$5</c:f>
+              <c:f>'Task 1 Accuracy Test '!$K$3:$K$5</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="24541442"/>
-        <c:axId val="1585803838"/>
+        <c:axId val="858973655"/>
+        <c:axId val="895110169"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="24541442"/>
+        <c:axId val="858973655"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -959,10 +927,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1585803838"/>
+        <c:crossAx val="895110169"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1585803838"/>
+        <c:axId val="895110169"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1010,7 +978,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="24541442"/>
+        <c:crossAx val="858973655"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1055,7 +1023,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Task 2 Balance Test'!$M$2</c:f>
+              <c:f>'Task 2 Balance Test'!$N$2</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1082,12 +1050,12 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Task 2 Balance Test'!$L$3:$L$5</c:f>
+              <c:f>'Task 2 Balance Test'!$M$3:$M$5</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Task 2 Balance Test'!$M$3:$M$5</c:f>
+              <c:f>'Task 2 Balance Test'!$N$3:$N$5</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -1096,7 +1064,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Task 2 Balance Test'!$N$2</c:f>
+              <c:f>'Task 2 Balance Test'!$O$2</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1123,20 +1091,20 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Task 2 Balance Test'!$L$3:$L$5</c:f>
+              <c:f>'Task 2 Balance Test'!$M$3:$M$5</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Task 2 Balance Test'!$N$3:$N$5</c:f>
+              <c:f>'Task 2 Balance Test'!$O$3:$O$5</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1898820119"/>
-        <c:axId val="383406702"/>
+        <c:axId val="386965411"/>
+        <c:axId val="238013797"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1898820119"/>
+        <c:axId val="386965411"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1168,10 +1136,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="383406702"/>
+        <c:crossAx val="238013797"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="383406702"/>
+        <c:axId val="238013797"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1219,7 +1187,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1898820119"/>
+        <c:crossAx val="386965411"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1264,7 +1232,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Task 2 Balance Test'!$I$2</c:f>
+              <c:f>'Task 2 Balance Test'!$J$2</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1291,12 +1259,12 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Task 2 Balance Test'!$H$3:$H$5</c:f>
+              <c:f>'Task 2 Balance Test'!$I$3:$I$5</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Task 2 Balance Test'!$I$3:$I$5</c:f>
+              <c:f>'Task 2 Balance Test'!$J$3:$J$5</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -1305,7 +1273,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Task 2 Balance Test'!$J$2</c:f>
+              <c:f>'Task 2 Balance Test'!$K$2</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1332,20 +1300,20 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Task 2 Balance Test'!$H$3:$H$5</c:f>
+              <c:f>'Task 2 Balance Test'!$I$3:$I$5</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Task 2 Balance Test'!$J$3:$J$5</c:f>
+              <c:f>'Task 2 Balance Test'!$K$3:$K$5</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1061659110"/>
-        <c:axId val="564068666"/>
+        <c:axId val="165567774"/>
+        <c:axId val="788619818"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1061659110"/>
+        <c:axId val="165567774"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1377,10 +1345,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="564068666"/>
+        <c:crossAx val="788619818"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="564068666"/>
+        <c:axId val="788619818"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1428,7 +1396,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1061659110"/>
+        <c:crossAx val="165567774"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1473,7 +1441,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Task 3 Movement Test'!$Q$2</c:f>
+              <c:f>'Task 3 Movement Test'!$R$2</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1500,12 +1468,12 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Task 3 Movement Test'!$P$3:$P$5</c:f>
+              <c:f>'Task 3 Movement Test'!$Q$3:$Q$5</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Task 3 Movement Test'!$Q$3:$Q$5</c:f>
+              <c:f>'Task 3 Movement Test'!$R$3:$R$5</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -1514,7 +1482,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Task 3 Movement Test'!$R$2</c:f>
+              <c:f>'Task 3 Movement Test'!$S$2</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1541,20 +1509,20 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Task 3 Movement Test'!$P$3:$P$5</c:f>
+              <c:f>'Task 3 Movement Test'!$Q$3:$Q$5</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Task 3 Movement Test'!$R$3:$R$5</c:f>
+              <c:f>'Task 3 Movement Test'!$S$3:$S$5</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="556450360"/>
-        <c:axId val="338249897"/>
+        <c:axId val="1180254935"/>
+        <c:axId val="388801479"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="556450360"/>
+        <c:axId val="1180254935"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1586,10 +1554,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="338249897"/>
+        <c:crossAx val="388801479"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="338249897"/>
+        <c:axId val="388801479"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1637,7 +1605,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="556450360"/>
+        <c:crossAx val="1180254935"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1683,7 +1651,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Task 3 Movement Test'!$M$2</c:f>
+              <c:f>'Task 3 Movement Test'!$N$2</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1710,12 +1678,12 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Task 3 Movement Test'!$L$3:$L$5</c:f>
+              <c:f>'Task 3 Movement Test'!$M$3:$M$5</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Task 3 Movement Test'!$M$3:$M$5</c:f>
+              <c:f>'Task 3 Movement Test'!$N$3:$N$5</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
@@ -1724,7 +1692,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Task 3 Movement Test'!$N$2</c:f>
+              <c:f>'Task 3 Movement Test'!$O$2</c:f>
             </c:strRef>
           </c:tx>
           <c:spPr>
@@ -1751,20 +1719,20 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Task 3 Movement Test'!$L$3:$L$5</c:f>
+              <c:f>'Task 3 Movement Test'!$M$3:$M$5</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Task 3 Movement Test'!$N$3:$N$5</c:f>
+              <c:f>'Task 3 Movement Test'!$O$3:$O$5</c:f>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="2114972279"/>
-        <c:axId val="1452224617"/>
+        <c:axId val="377763830"/>
+        <c:axId val="689878844"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2114972279"/>
+        <c:axId val="377763830"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1800,10 +1768,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1452224617"/>
+        <c:crossAx val="689878844"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1452224617"/>
+        <c:axId val="689878844"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1855,7 +1823,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2114972279"/>
+        <c:crossAx val="377763830"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1886,13 +1854,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -1916,13 +1884,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>2790825</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>1457325</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -1951,13 +1919,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>2076450</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>2524125</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1981,13 +1949,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>2562225</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>1219200</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
@@ -2016,13 +1984,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>2124075</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>1371600</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -2046,13 +2014,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>2743200</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>1581150</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
@@ -2160,18 +2128,16 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6">
         <v>1.0</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="F3" s="7">
         <v>42298.0</v>
@@ -2180,45 +2146,43 @@
         <v>28.0</v>
       </c>
       <c r="H3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="L3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="L3" s="8" t="s">
+      <c r="M3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="N3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="O3" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="C4" s="5">
         <v>2.0</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7">
         <v>42298.0</v>
@@ -2227,43 +2191,41 @@
         <v>24.0</v>
       </c>
       <c r="H4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="J4" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="N4" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="6">
         <v>3.0</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="F5" s="7">
         <v>42298.0</v>
@@ -2272,43 +2234,41 @@
         <v>26.0</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K5" s="8">
         <v>2.0</v>
       </c>
       <c r="L5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M5" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="N5" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5">
         <v>4.0</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7">
         <v>42298.0</v>
@@ -2317,43 +2277,41 @@
         <v>26.0</v>
       </c>
       <c r="H6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="O6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="O6" s="5" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>31</v>
-      </c>
+      <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="6">
         <v>5.0</v>
       </c>
       <c r="D7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="F7" s="7">
         <v>42298.0</v>
@@ -2362,13 +2320,13 @@
         <v>24.0</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K7" s="8">
         <v>0.0</v>
@@ -2380,25 +2338,23 @@
         <v>1.0</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="O7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>35</v>
-      </c>
+      <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5">
         <v>6.0</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="F8" s="7">
         <v>42298.0</v>
@@ -2407,43 +2363,41 @@
         <v>23.0</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J8" s="11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="L8" s="8">
         <v>8.0</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="6">
         <v>7.0</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="F9" s="7">
         <v>42298.0</v>
@@ -2452,43 +2406,41 @@
         <v>24.0</v>
       </c>
       <c r="H9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I9" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="J9" s="11" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M9" s="8">
         <v>30.0</v>
       </c>
       <c r="N9" s="5" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
-        <v>42</v>
-      </c>
+      <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5">
         <v>8.0</v>
       </c>
       <c r="D10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="F10" s="7">
         <v>42298.0</v>
@@ -2497,16 +2449,16 @@
         <v>28.0</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="J10" s="11" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="L10" s="8">
         <v>0.0</v>
@@ -2515,25 +2467,23 @@
         <v>30.0</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
-        <v>45</v>
-      </c>
+      <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="6">
         <v>9.0</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" s="7">
         <v>42298.0</v>
@@ -2542,13 +2492,13 @@
         <v>22.0</v>
       </c>
       <c r="H11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I11" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="J11" s="10" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="K11" s="8">
         <v>5.0</v>
@@ -2557,30 +2507,28 @@
         <v>7.0</v>
       </c>
       <c r="M11" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N11" s="5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="O11" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="12" t="s">
-        <v>48</v>
-      </c>
+      <c r="A12" s="12"/>
       <c r="B12" s="13" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C12" s="12">
         <v>10.0</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F12" s="14">
         <v>42298.0</v>
@@ -2589,28 +2537,28 @@
         <v>23.0</v>
       </c>
       <c r="H12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="12" t="s">
-        <v>14</v>
-      </c>
       <c r="J12" s="12" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M12" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="O12" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P12" s="16"/>
       <c r="Q12" s="16"/>
@@ -2626,20 +2574,18 @@
       <c r="AA12" s="16"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
-        <v>52</v>
-      </c>
+      <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" s="6">
         <v>11.0</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" s="7">
         <v>42298.0</v>
@@ -2648,45 +2594,43 @@
         <v>27.0</v>
       </c>
       <c r="H13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="J13" s="10" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="K13" s="8">
         <v>5.0</v>
       </c>
       <c r="L13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="M13" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="N13" s="5" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="O13" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
-        <v>55</v>
-      </c>
+      <c r="A14" s="5"/>
       <c r="B14" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="5">
         <v>12.0</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F14" s="7">
         <v>42298.0</v>
@@ -2695,45 +2639,43 @@
         <v>24.0</v>
       </c>
       <c r="H14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>14</v>
-      </c>
       <c r="J14" s="10" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="K14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M14" s="8" t="s">
-        <v>17</v>
-      </c>
       <c r="N14" s="5" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="O14" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C15" s="6">
         <v>13.0</v>
       </c>
       <c r="D15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="F15" s="7">
         <v>42298.0</v>
@@ -2742,42 +2684,40 @@
         <v>23.0</v>
       </c>
       <c r="H15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N15" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="O15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M15" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N15" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
-        <v>62</v>
-      </c>
+      <c r="A16" s="5"/>
       <c r="C16" s="5">
         <v>14.0</v>
       </c>
       <c r="D16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="F16" s="7">
         <v>42298.0</v>
@@ -2786,28 +2726,28 @@
         <v>24.0</v>
       </c>
       <c r="H16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="O16" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2835,99 +2775,101 @@
     <col customWidth="1" min="4" max="4" width="31.14"/>
     <col customWidth="1" min="5" max="5" width="29.86"/>
     <col customWidth="1" min="6" max="6" width="18.57"/>
-    <col customWidth="1" min="7" max="7" width="53.57"/>
-    <col customWidth="1" min="8" max="8" width="28.71"/>
-    <col customWidth="1" min="11" max="11" width="41.0"/>
-    <col customWidth="1" min="15" max="15" width="38.29"/>
-    <col customWidth="1" min="16" max="16" width="22.14"/>
-    <col customWidth="1" min="17" max="17" width="22.71"/>
-    <col customWidth="1" min="20" max="20" width="34.43"/>
-    <col customWidth="1" min="25" max="25" width="28.86"/>
+    <col customWidth="1" min="7" max="7" width="17.0"/>
+    <col customWidth="1" min="8" max="8" width="53.57"/>
+    <col customWidth="1" min="9" max="9" width="28.71"/>
+    <col customWidth="1" min="12" max="12" width="41.0"/>
+    <col customWidth="1" min="16" max="16" width="38.29"/>
+    <col customWidth="1" min="17" max="17" width="22.14"/>
+    <col customWidth="1" min="18" max="18" width="22.71"/>
+    <col customWidth="1" min="21" max="21" width="34.43"/>
+    <col customWidth="1" min="26" max="26" width="28.86"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="R1" s="19"/>
-      <c r="T1" s="19" t="s">
-        <v>70</v>
+        <v>52</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="19"/>
+      <c r="U1" s="19" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
-        <v>78</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>78</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
       <c r="N2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3" t="s">
-        <v>80</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="P2" s="3"/>
       <c r="Q2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="21" t="s">
-        <v>78</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z2" s="20"/>
       <c r="AA2" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="AB2" s="22" t="s">
-        <v>82</v>
+        <v>65</v>
+      </c>
+      <c r="AB2" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC2" s="22" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="3">
@@ -2935,7 +2877,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C3" s="5">
         <v>1.0</v>
@@ -2950,50 +2892,50 @@
         <f t="shared" ref="F3:F44" si="1">AVERAGE(C3:E3)</f>
         <v>1.333333333</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I3" t="str">
+      <c r="I3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" t="str">
         <f>ROUND(AVERAGE((F7/F6),(F13/F12),(F28/F27),(F34/F33),(F37/F36))*100,1)</f>
         <v>136.7</v>
       </c>
-      <c r="J3" t="str">
+      <c r="K3" t="str">
         <f>ROUND(AVERAGE((F4/F3),(F10/F9),(F16/F15),(F19/F18),(F22/F21),(F25/F24),(F40/F39),(F43/F42))*100,1)</f>
         <v>158.3</v>
       </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M3" t="str">
-        <f t="shared" ref="M3:M5" si="2">ROUND(AVERAGE(C6:E6,C12:E12,C27:E27,C33:E33,C36:E36),1)</f>
+      <c r="L3" s="5"/>
+      <c r="M3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:N5" si="2">ROUND(AVERAGE(C6:E6,C12:E12,C27:E27,C33:E33,C36:E36),1)</f>
         <v>1.3</v>
       </c>
-      <c r="N3" t="str">
-        <f t="shared" ref="N3:N5" si="3">ROUND(AVERAGE(C3:E3,C9:E9,C15:E15,C18:E18,C21:E21,C24:E24,C39:E39,C42:E42),1)</f>
+      <c r="O3" t="str">
+        <f t="shared" ref="O3:O5" si="3">ROUND(AVERAGE(C3:E3,C9:E9,C15:E15,C18:E18,C21:E21,C24:E24,C39:E39,C42:E42),1)</f>
         <v>1</v>
       </c>
-      <c r="P3" t="str">
-        <f t="shared" ref="P3:P5" si="4">STDEV(C6:E6,C12:E12,C27:E27,C33:E33,C36:E36)</f>
+      <c r="Q3" t="str">
+        <f t="shared" ref="Q3:Q5" si="4">STDEV(C6:E6,C12:E12,C27:E27,C33:E33,C36:E36)</f>
         <v>0.7988086367</v>
       </c>
-      <c r="Q3" t="str">
-        <f t="shared" ref="Q3:Q5" si="5">STDEV(C3:E3,C9:E9,C15:E15,C18:E18,C21:E21,C24:E24,C39:E39,C42:E42)</f>
+      <c r="R3" t="str">
+        <f t="shared" ref="R3:R5" si="5">STDEV(C3:E3,C9:E9,C15:E15,C18:E18,C21:E21,C24:E24,C39:E39,C42:E42)</f>
         <v>0.2041241452</v>
       </c>
-      <c r="Y3" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="Z3" s="23" t="str">
-        <f t="shared" ref="Z3:Z5" si="7">SUM(C6:E6,C12:E12,C27:E27,C33:E33,C36:E36)</f>
+      <c r="Z3" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA3" s="23" t="str">
+        <f t="shared" ref="AA3:AA5" si="7">SUM(C6:E6,C12:E12,C27:E27,C33:E33,C36:E36)</f>
         <v>19</v>
       </c>
-      <c r="AA3" s="24" t="str">
-        <f t="shared" ref="AA3:AA5" si="8">SUM(C3:E3,C9:E9,C15:E15,C18:E18,C21:E21,C24:E24,C39:E39,C42:E42)</f>
+      <c r="AB3" s="24" t="str">
+        <f t="shared" ref="AB3:AB5" si="8">SUM(C3:E3,C9:E9,C15:E15,C18:E18,C21:E21,C24:E24,C39:E39,C42:E42)</f>
         <v>25</v>
       </c>
-      <c r="AB3" s="23" t="str">
-        <f t="shared" ref="AB3:AB5" si="9">SUM(Z3:AA3)</f>
+      <c r="AC3" s="23" t="str">
+        <f t="shared" ref="AC3:AC5" si="9">SUM(AA3:AB3)</f>
         <v>44</v>
       </c>
     </row>
@@ -3002,7 +2944,7 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C4" s="5">
         <v>1.0</v>
@@ -3017,60 +2959,60 @@
         <f t="shared" si="1"/>
         <v>1.333333333</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I4" t="str">
+      <c r="I4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" t="str">
         <f>ROUND(AVERAGE((F8/F6),(F14/F12),(F29/F27),(F35/F33),(F38/F36))*100,1)</f>
         <v>150</v>
       </c>
-      <c r="J4" t="str">
+      <c r="K4" t="str">
         <f>AVERAGE((F5/F3),(F11/F9),(F17/F15),(F20/F18),(F23/F21),(F26/F24),(F41/F39),(F44/F42))*100</f>
         <v>187.5</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="M4" t="str">
+      <c r="L4" s="5"/>
+      <c r="M4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" t="str">
         <f t="shared" si="2"/>
         <v>1.5</v>
       </c>
-      <c r="N4" t="str">
+      <c r="O4" t="str">
         <f t="shared" si="3"/>
         <v>1.6</v>
       </c>
-      <c r="P4" t="str">
+      <c r="Q4" t="str">
         <f t="shared" si="4"/>
         <v>0.9154754164</v>
       </c>
-      <c r="Q4" t="str">
+      <c r="R4" t="str">
         <f t="shared" si="5"/>
         <v>0.969648076</v>
       </c>
-      <c r="T4" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="U4" t="str">
-        <f t="shared" ref="U4:V4" si="6">SUM(M4/M3*100)</f>
+      <c r="U4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="V4" t="str">
+        <f t="shared" ref="V4:W4" si="6">SUM(N4/N3*100)</f>
         <v>115.3846154</v>
       </c>
-      <c r="V4" t="str">
+      <c r="W4" t="str">
         <f t="shared" si="6"/>
         <v>160</v>
       </c>
-      <c r="Y4" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="Z4" s="23" t="str">
+      <c r="Z4" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA4" s="23" t="str">
         <f t="shared" si="7"/>
         <v>23</v>
       </c>
-      <c r="AA4" s="24" t="str">
+      <c r="AB4" s="24" t="str">
         <f t="shared" si="8"/>
         <v>39</v>
       </c>
-      <c r="AB4" s="23" t="str">
+      <c r="AC4" s="23" t="str">
         <f t="shared" si="9"/>
         <v>62</v>
       </c>
@@ -3080,7 +3022,7 @@
         <v>1.0</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C5" s="5">
         <v>1.0</v>
@@ -3095,60 +3037,64 @@
         <f t="shared" si="1"/>
         <v>1.333333333</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I5" t="str">
+      <c r="G5" t="str">
+        <f>AVERAGE((C5-F3),(D5-F3),(E5-F3))</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="str">
         <f>ROUND(AVERAGE((F8/F7), (F14/F13),(F29/F28),(F35/F34),(F38/F37))*100,1)</f>
         <v>117.3</v>
       </c>
-      <c r="J5" t="str">
+      <c r="K5" t="str">
         <f>ROUND(AVERAGE((F5/F4),(F11/F10),(F17/F16),(F20/F19),(F23/F22),(F26/F25),(F41/F40),(F44/F43))*100,1)</f>
         <v>126.5</v>
       </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="M5" t="str">
+      <c r="L5" s="5"/>
+      <c r="M5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="N5" t="str">
         <f t="shared" si="2"/>
         <v>1.7</v>
       </c>
-      <c r="N5" t="str">
+      <c r="O5" t="str">
         <f t="shared" si="3"/>
         <v>1.9</v>
       </c>
-      <c r="P5" t="str">
+      <c r="Q5" t="str">
         <f t="shared" si="4"/>
         <v>1.162919151</v>
       </c>
-      <c r="Q5" t="str">
+      <c r="R5" t="str">
         <f t="shared" si="5"/>
         <v>0.9743076323</v>
       </c>
-      <c r="T5" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="U5" t="str">
-        <f t="shared" ref="U5:V5" si="10">SUM(M5/M3*100)</f>
+      <c r="U5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V5" t="str">
+        <f t="shared" ref="V5:W5" si="10">SUM(N5/N3*100)</f>
         <v>130.7692308</v>
       </c>
-      <c r="V5" t="str">
+      <c r="W5" t="str">
         <f t="shared" si="10"/>
         <v>190</v>
       </c>
-      <c r="Y5" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z5" s="27" t="str">
+      <c r="Z5" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA5" s="27" t="str">
         <f t="shared" si="7"/>
         <v>26</v>
       </c>
-      <c r="AA5" s="28" t="str">
+      <c r="AB5" s="28" t="str">
         <f t="shared" si="8"/>
         <v>46</v>
       </c>
-      <c r="AB5" s="27" t="str">
+      <c r="AC5" s="27" t="str">
         <f t="shared" si="9"/>
         <v>72</v>
       </c>
@@ -3158,7 +3104,7 @@
         <v>2.0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C6" s="5">
         <v>1.0</v>
@@ -3173,30 +3119,30 @@
         <f t="shared" si="1"/>
         <v>1.333333333</v>
       </c>
-      <c r="T6" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="U6" t="str">
-        <f t="shared" ref="U6:V6" si="11">SUM(M5/M4*100)</f>
+      <c r="U6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="V6" t="str">
+        <f t="shared" ref="V6:W6" si="11">SUM(N5/N4*100)</f>
         <v>113.3333333</v>
       </c>
-      <c r="V6" t="str">
+      <c r="W6" t="str">
         <f t="shared" si="11"/>
         <v>118.75</v>
       </c>
-      <c r="Y6" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z6" s="23" t="str">
-        <f t="shared" ref="Z6:AA6" si="12">SUM(Z3:Z5)</f>
+      <c r="Z6" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="AA6" s="23" t="str">
+        <f t="shared" ref="AA6:AB6" si="12">SUM(AA3:AA5)</f>
         <v>68</v>
       </c>
-      <c r="AA6" s="24" t="str">
+      <c r="AB6" s="24" t="str">
         <f t="shared" si="12"/>
         <v>110</v>
       </c>
-      <c r="AB6" s="23" t="str">
-        <f>SUM(Z6:AA6, AB3:AB5)</f>
+      <c r="AC6" s="23" t="str">
+        <f>SUM(AA6:AB6, AC3:AC5)</f>
         <v>356</v>
       </c>
     </row>
@@ -3205,7 +3151,7 @@
         <v>2.0</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C7" s="5">
         <v>2.0</v>
@@ -3226,7 +3172,7 @@
         <v>2.0</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C8" s="5">
         <v>1.0</v>
@@ -3240,6 +3186,10 @@
       <c r="F8" t="str">
         <f t="shared" si="1"/>
         <v>2.666666667</v>
+      </c>
+      <c r="G8" t="str">
+        <f>AVERAGE((C8-F6),(D8-F6),(E8-F6))</f>
+        <v>1.333333333</v>
       </c>
     </row>
     <row r="9">
@@ -3247,7 +3197,7 @@
         <v>3.0</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C9" s="5">
         <v>1.0</v>
@@ -3268,7 +3218,7 @@
         <v>3.0</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C10" s="5">
         <v>2.0</v>
@@ -3289,7 +3239,7 @@
         <v>3.0</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C11" s="5">
         <v>2.0</v>
@@ -3304,8 +3254,12 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="R11" s="3" t="s">
-        <v>92</v>
+      <c r="G11" t="str">
+        <f>AVERAGE((C11-F9),(D11-F9),(E11-F9))</f>
+        <v>1</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="12">
@@ -3313,7 +3267,7 @@
         <v>4.0</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C12" s="5">
         <v>1.0</v>
@@ -3328,8 +3282,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="R12" t="str">
-        <f t="array" ref="R12">TTEST({C8:E8,C14:E14,C29:E29,C35:E35,C38:E38},{C5:E5,C11:E11,C17:E17,C20:E20,C23:E23}, 2, 1)</f>
+      <c r="S12" t="str">
+        <f t="array" ref="S12">TTEST({C8:E8,C14:E14,C29:E29,C35:E35,C38:E38},{C5:E5,C11:E11,C17:E17,C20:E20,C23:E23}, 2, 1)</f>
         <v>0.6288619065</v>
       </c>
     </row>
@@ -3338,7 +3292,7 @@
         <v>4.0</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C13" s="5">
         <v>3.0</v>
@@ -3352,6 +3306,10 @@
       <c r="F13" t="str">
         <f t="shared" si="1"/>
         <v>1.666666667</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="array" ref="S13">TTEST({G8,G14,G29,G35,G38},{G5,G11,G17,G20,G23}, 2, 1)</f>
+        <v>0.5354236012</v>
       </c>
     </row>
     <row r="14">
@@ -3359,7 +3317,7 @@
         <v>4.0</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C14" s="5">
         <v>3.0</v>
@@ -3373,6 +3331,10 @@
       <c r="F14" t="str">
         <f t="shared" si="1"/>
         <v>1.666666667</v>
+      </c>
+      <c r="G14" t="str">
+        <f>AVERAGE((C14-F12),(D14-F12),(E14-F12))</f>
+        <v>0.6666666667</v>
       </c>
     </row>
     <row r="15">
@@ -3380,7 +3342,7 @@
         <v>5.0</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C15" s="5">
         <v>1.0</v>
@@ -3401,7 +3363,7 @@
         <v>5.0</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C16" s="5">
         <v>1.0</v>
@@ -3422,7 +3384,7 @@
         <v>5.0</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C17" s="5">
         <v>1.0</v>
@@ -3436,6 +3398,10 @@
       <c r="F17" t="str">
         <f t="shared" si="1"/>
         <v>2</v>
+      </c>
+      <c r="G17" t="str">
+        <f>AVERAGE((C17-F15),(D17-F15),(E17-F15))</f>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -3443,7 +3409,7 @@
         <v>6.0</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C18" s="5">
         <v>1.0</v>
@@ -3458,14 +3424,14 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
     </row>
     <row r="19">
       <c r="A19" s="5">
         <v>6.0</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C19" s="5">
         <v>2.0</v>
@@ -3480,14 +3446,14 @@
         <f t="shared" si="1"/>
         <v>2.333333333</v>
       </c>
-      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
     </row>
     <row r="20">
       <c r="A20" s="5">
         <v>6.0</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C20" s="5">
         <v>3.0</v>
@@ -3501,6 +3467,10 @@
       <c r="F20" t="str">
         <f t="shared" si="1"/>
         <v>3.333333333</v>
+      </c>
+      <c r="G20" t="str">
+        <f>AVERAGE((C20-F18),(D20-F18),(E20-F18))</f>
+        <v>2.333333333</v>
       </c>
     </row>
     <row r="21">
@@ -3508,7 +3478,7 @@
         <v>7.0</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C21" s="5">
         <v>1.0</v>
@@ -3529,7 +3499,7 @@
         <v>7.0</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C22" s="5">
         <v>2.0</v>
@@ -3544,8 +3514,9 @@
         <f t="shared" si="1"/>
         <v>2.333333333</v>
       </c>
-      <c r="G22" s="5" t="s">
-        <v>93</v>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="23">
@@ -3553,7 +3524,7 @@
         <v>7.0</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C23" s="5">
         <v>1.0</v>
@@ -3568,14 +3539,18 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="S23" s="30"/>
+      <c r="G23" t="str">
+        <f>AVERAGE((C23-F21),(D23-F21),(E23-F21))</f>
+        <v>0</v>
+      </c>
+      <c r="T23" s="30"/>
     </row>
     <row r="24">
       <c r="A24" s="5">
         <v>8.0</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C24" s="5">
         <v>1.0</v>
@@ -3596,7 +3571,7 @@
         <v>8.0</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C25" s="5">
         <v>1.0</v>
@@ -3611,8 +3586,9 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="G25" s="5" t="s">
-        <v>94</v>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="26">
@@ -3620,7 +3596,7 @@
         <v>8.0</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C26" s="5">
         <v>1.0</v>
@@ -3635,8 +3611,12 @@
         <f t="shared" si="1"/>
         <v>1.666666667</v>
       </c>
-      <c r="G26" s="5" t="s">
-        <v>95</v>
+      <c r="G26" t="str">
+        <f>AVERAGE((C26-F24),(D26-F24),(E26-F24))</f>
+        <v>0.6666666667</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="27">
@@ -3644,7 +3624,7 @@
         <v>9.0</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C27" s="5">
         <v>1.0</v>
@@ -3665,7 +3645,7 @@
         <v>9.0</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C28" s="5">
         <v>1.0</v>
@@ -3686,7 +3666,7 @@
         <v>9.0</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C29" s="5">
         <v>1.0</v>
@@ -3701,8 +3681,12 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G29" s="5" t="s">
-        <v>96</v>
+      <c r="G29" t="str">
+        <f>AVERAGE((C29-F27),(D29-F27),(E29-F27))</f>
+        <v>-1</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="30">
@@ -3710,7 +3694,7 @@
         <v>10.0</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C30" s="12">
         <v>1.0</v>
@@ -3725,10 +3709,8 @@
         <f t="shared" si="1"/>
         <v>1.333333333</v>
       </c>
-      <c r="G30" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="H30" s="16"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="12"/>
       <c r="I30" s="16"/>
       <c r="J30" s="16"/>
       <c r="K30" s="16"/>
@@ -3751,13 +3733,14 @@
       <c r="AB30" s="16"/>
       <c r="AC30" s="16"/>
       <c r="AD30" s="16"/>
+      <c r="AE30" s="16"/>
     </row>
     <row r="31">
       <c r="A31" s="12">
         <v>10.0</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C31" s="12">
         <v>16.0</v>
@@ -3796,13 +3779,14 @@
       <c r="AB31" s="16"/>
       <c r="AC31" s="16"/>
       <c r="AD31" s="16"/>
+      <c r="AE31" s="16"/>
     </row>
     <row r="32">
       <c r="A32" s="12">
         <v>10.0</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
@@ -3835,13 +3819,14 @@
       <c r="AB32" s="16"/>
       <c r="AC32" s="16"/>
       <c r="AD32" s="16"/>
+      <c r="AE32" s="16"/>
     </row>
     <row r="33">
       <c r="A33" s="6">
         <v>11.0</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C33" s="5">
         <v>1.0</v>
@@ -3855,6 +3840,9 @@
       <c r="F33" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="34">
@@ -3862,7 +3850,7 @@
         <v>11.0</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C34" s="5">
         <v>2.0</v>
@@ -3877,8 +3865,15 @@
         <f t="shared" si="1"/>
         <v>1.666666667</v>
       </c>
-      <c r="G34" s="5" t="s">
-        <v>98</v>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="35">
@@ -3886,7 +3881,7 @@
         <v>11.0</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C35" s="5">
         <v>4.0</v>
@@ -3900,6 +3895,21 @@
       <c r="F35" t="str">
         <f t="shared" si="1"/>
         <v>2</v>
+      </c>
+      <c r="G35" t="str">
+        <f>AVERAGE((C35-F33),(D35-F33),(E35-F33))</f>
+        <v>1</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J35" t="str">
+        <f>STDEV((F7/F6),(F13/F12),(F28/F27),(F34/F33),(F37/F36))*100</f>
+        <v>60.55300708</v>
+      </c>
+      <c r="K35" t="str">
+        <f>STDEV((F4/F3),(F10/F9),(F16/F15),(F19/F18),(F22/F21),(F25/F24),(F40/F39),(F43/F42))*100</f>
+        <v>58.41830546</v>
       </c>
     </row>
     <row r="36">
@@ -3907,7 +3917,7 @@
         <v>12.0</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C36" s="5">
         <v>1.0</v>
@@ -3921,6 +3931,17 @@
       <c r="F36" t="str">
         <f t="shared" si="1"/>
         <v>1</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J36" t="str">
+        <f>STDEV((F8/F6),(F14/F12),(F29/F27),(F35/F33),(F38/F36))*100</f>
+        <v>62.36095645</v>
+      </c>
+      <c r="K36" t="str">
+        <f>STDEV((F5/F3),(F11/F9),(F17/F15),(F20/F18),(F23/F21),(F26/F24),(F41/F39),(F44/F42))*100</f>
+        <v>81.52806509</v>
       </c>
     </row>
     <row r="37">
@@ -3928,7 +3949,7 @@
         <v>12.0</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C37" s="5">
         <v>1.0</v>
@@ -3942,6 +3963,17 @@
       <c r="F37" t="str">
         <f t="shared" si="1"/>
         <v>2</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J37" t="str">
+        <f>STDEV((F8/F7),(F14/F13),(F29/F28),(F35/F34),(F38/F37))*100</f>
+        <v>50.02221729</v>
+      </c>
+      <c r="K37" t="str">
+        <f>STDEV((F5/F4),(F11/F10),(F17/F16),(F20/F19),(F23/F22),(F26/F25),(F41/F40),(F44/F43))*100</f>
+        <v>49.21196296</v>
       </c>
     </row>
     <row r="38">
@@ -3949,7 +3981,7 @@
         <v>12.0</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C38" s="5">
         <v>1.0</v>
@@ -3963,6 +3995,10 @@
       <c r="F38" t="str">
         <f t="shared" si="1"/>
         <v>1.333333333</v>
+      </c>
+      <c r="G38" t="str">
+        <f>AVERAGE((C38-F36),(D38-F36),(E38-F36))</f>
+        <v>0.3333333333</v>
       </c>
     </row>
     <row r="39">
@@ -3970,7 +4006,7 @@
         <v>13.0</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C39" s="5">
         <v>1.0</v>
@@ -3991,7 +4027,7 @@
         <v>13.0</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C40" s="5">
         <v>1.0</v>
@@ -4012,7 +4048,7 @@
         <v>13.0</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C41" s="5">
         <v>1.0</v>
@@ -4026,6 +4062,10 @@
       <c r="F41" t="str">
         <f t="shared" si="1"/>
         <v>1.333333333</v>
+      </c>
+      <c r="G41" t="str">
+        <f>AVERAGE((C41-F39),(D41-F39),(E41-F39))</f>
+        <v>0.3333333333</v>
       </c>
     </row>
     <row r="42">
@@ -4033,7 +4073,7 @@
         <v>14.0</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C42" s="5">
         <v>1.0</v>
@@ -4054,7 +4094,7 @@
         <v>14.0</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C43" s="5">
         <v>1.0</v>
@@ -4075,7 +4115,7 @@
         <v>14.0</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C44" s="5">
         <v>3.0</v>
@@ -4089,6 +4129,10 @@
       <c r="F44" t="str">
         <f t="shared" si="1"/>
         <v>2.666666667</v>
+      </c>
+      <c r="G44" t="str">
+        <f>AVERAGE((C44-F42),(D44-F42),(E44-F42))</f>
+        <v>1.666666667</v>
       </c>
     </row>
     <row r="45">
@@ -4113,13 +4157,14 @@
       <c r="E47" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="D1:H1"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -4141,74 +4186,90 @@
     <col customWidth="1" min="4" max="4" width="31.14"/>
     <col customWidth="1" min="5" max="5" width="29.86"/>
     <col customWidth="1" min="6" max="6" width="18.57"/>
-    <col customWidth="1" min="7" max="7" width="53.57"/>
-    <col customWidth="1" min="8" max="8" width="28.86"/>
-    <col customWidth="1" min="11" max="11" width="35.71"/>
-    <col customWidth="1" min="15" max="15" width="39.14"/>
-    <col customWidth="1" min="16" max="16" width="28.57"/>
+    <col customWidth="1" min="7" max="7" width="20.0"/>
+    <col customWidth="1" min="8" max="8" width="53.57"/>
+    <col customWidth="1" min="9" max="9" width="28.86"/>
+    <col customWidth="1" min="12" max="12" width="35.71"/>
+    <col customWidth="1" min="16" max="16" width="38.71"/>
+    <col customWidth="1" min="17" max="17" width="21.14"/>
+    <col customWidth="1" min="18" max="18" width="22.71"/>
+    <col customWidth="1" min="19" max="20" width="28.57"/>
   </cols>
   <sheetData>
     <row r="1" ht="36.0" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="L1" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>70</v>
+        <v>86</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="M1" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
-        <v>78</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3" t="s">
-        <v>72</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" s="3"/>
       <c r="M2" s="3" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>79</v>
+        <v>65</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>79</v>
+        <v>68</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="3">
@@ -4216,7 +4277,7 @@
         <v>1.0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C3" s="5">
         <v>0.0</v>
@@ -4231,36 +4292,44 @@
         <f t="shared" ref="F3:F44" si="1">AVERAGE(C3:E3)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I3" t="str">
+      <c r="I3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J3" t="str">
         <f>ROUND(AVERAGE((F7/F6),(F13/F12),(F28/F27),(F34/F33),(F37/F36))*100,1)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J3" t="str">
+      <c r="K3" t="str">
         <f>AVERAGE((F4/F3),(F10/F9),(F16/F15),(F19/F18),(F22/F21),(F25/F24),(F40/F39),(F43/F42))*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M3" t="str">
+      <c r="L3" s="5"/>
+      <c r="M3" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="N3" t="str">
         <f>AVERAGE(C6:E6,C12:E12,C27:E27,C33:E33,C36:E36)</f>
         <v>0</v>
       </c>
-      <c r="N3" t="str">
+      <c r="O3" t="str">
         <f>AVERAGE(C3:E3,C9:E9,C15:E15,C18:E18,C21:E21,C24:E24,C39:E39,C42:E42)</f>
         <v>0</v>
       </c>
+      <c r="Q3" t="str">
+        <f t="shared" ref="Q3:Q5" si="2">STDEV(C6:E6,C12:E12,C27:E27,C33:E33,C36:E36)</f>
+        <v>0</v>
+      </c>
+      <c r="R3" t="str">
+        <f t="shared" ref="R3:R5" si="3">STDEV(C3:E3,C9:E9,C15:E15,C18:E18,C21:E21,C24:E24,C39:E39,C42:E42)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="6">
         <v>1.0</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C4" s="5">
         <v>3.0</v>
@@ -4275,38 +4344,47 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="I4" t="str">
+      <c r="I4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J4" t="str">
         <f>AVERAGE((F8/F6),(F14/F12),(F29/F27),(F35/F33),(F38/F36))*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J4" t="str">
+      <c r="K4" t="str">
         <f>AVERAGE((F5/F3),(F11/F9),(F17/F15),(F20/F18),(F23/F21),(F26/F24),(F41/F39),(F44/F42))*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="M4" t="str">
-        <f t="shared" ref="M4:M5" si="3">ROUND(AVERAGE(C7:E7,C13:E13,C28:E28,C34:E34,C37:E37),1)</f>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" ref="N4:N5" si="5">ROUND(AVERAGE(C7:E7,C13:E13,C28:E28,C34:E34,C37:E37),1)</f>
         <v>4.5</v>
       </c>
-      <c r="N4" t="str">
-        <f t="shared" ref="N4:N5" si="4">ROUND(AVERAGE(C4:E4,C10:E10,C16:E16,C19:E19,C22:E22,C25:E25,C40:E40,C43:E43),1)</f>
+      <c r="O4" t="str">
+        <f t="shared" ref="O4:O5" si="6">ROUND(AVERAGE(C4:E4,C10:E10,C16:E16,C19:E19,C22:E22,C25:E25,C40:E40,C43:E43),1)</f>
         <v>4.3</v>
       </c>
-      <c r="P4" s="3" t="s">
-        <v>84</v>
-      </c>
       <c r="Q4" t="str">
-        <f t="shared" ref="Q4:R4" si="2">SUM(M4/M3*100)</f>
+        <f t="shared" si="2"/>
+        <v>1.959105724</v>
+      </c>
+      <c r="R4" t="str">
+        <f t="shared" si="3"/>
+        <v>3.712249601</v>
+      </c>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="U4" t="str">
+        <f t="shared" ref="U4:V4" si="4">SUM(N4/N3*100)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R4" t="str">
-        <f t="shared" si="2"/>
+      <c r="V4" t="str">
+        <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4315,7 +4393,7 @@
         <v>1.0</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C5" s="5">
         <v>8.0</v>
@@ -4330,38 +4408,51 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I5" t="str">
+      <c r="G5" t="str">
+        <f>AVERAGE((C5-F3),(D5-F3),(E5-F3))</f>
+        <v>7</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="str">
         <f>ROUND(AVERAGE((F8/F7), (F14/F13),(F29/F28),(F35/F34),(F38/F37))*100,1)</f>
         <v>318.4</v>
       </c>
-      <c r="J5" t="str">
+      <c r="K5" t="str">
         <f>ROUND(AVERAGE((F5/F4),(F11/F10),(F17/F16),(F20/F19),(F23/F22),(F26/F25),(F41/F40),(F44/F43))*100,1)</f>
         <v>439.4</v>
       </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="M5" t="str">
+      <c r="L5" s="5"/>
+      <c r="M5" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="5"/>
+        <v>12.3</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="6"/>
+        <v>9.7</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="2"/>
+        <v>3.352326839</v>
+      </c>
+      <c r="R5" t="str">
         <f t="shared" si="3"/>
-        <v>12.3</v>
-      </c>
-      <c r="N5" t="str">
-        <f t="shared" si="4"/>
-        <v>9.7</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q5" t="str">
-        <f t="shared" ref="Q5:R5" si="5">SUM(M5/M3*100)</f>
+        <v>4.380457259</v>
+      </c>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="U5" t="str">
+        <f t="shared" ref="U5:V5" si="7">SUM(N5/N3*100)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R5" t="str">
-        <f t="shared" si="5"/>
+      <c r="V5" t="str">
+        <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -4370,7 +4461,7 @@
         <v>2.0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C6" s="5">
         <v>0.0</v>
@@ -4385,15 +4476,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="P6" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q6" t="str">
-        <f t="shared" ref="Q6:R6" si="6">SUM(M5/M4*100)</f>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="U6" t="str">
+        <f t="shared" ref="U6:V6" si="8">SUM(N5/N4*100)</f>
         <v>273.3333333</v>
       </c>
-      <c r="R6" t="str">
-        <f t="shared" si="6"/>
+      <c r="V6" t="str">
+        <f t="shared" si="8"/>
         <v>225.5813953</v>
       </c>
     </row>
@@ -4402,7 +4496,7 @@
         <v>2.0</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C7" s="5">
         <v>3.0</v>
@@ -4423,7 +4517,7 @@
         <v>2.0</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C8" s="5">
         <v>19.0</v>
@@ -4436,6 +4530,10 @@
       </c>
       <c r="F8" t="str">
         <f t="shared" si="1"/>
+        <v>15.66666667</v>
+      </c>
+      <c r="G8" t="str">
+        <f>AVERAGE((C8-F6),(D8-F6),(E8-F6))</f>
         <v>15.66666667</v>
       </c>
     </row>
@@ -4444,7 +4542,7 @@
         <v>3.0</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C9" s="5">
         <v>0.0</v>
@@ -4465,7 +4563,7 @@
         <v>3.0</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C10" s="5">
         <v>6.0</v>
@@ -4486,7 +4584,7 @@
         <v>3.0</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C11" s="5">
         <v>14.0</v>
@@ -4501,16 +4599,21 @@
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="R11" s="3" t="s">
-        <v>92</v>
-      </c>
+      <c r="G11" t="str">
+        <f>AVERAGE((C11-F9),(D11-F9),(E11-F9))</f>
+        <v>14</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="V11" s="3"/>
     </row>
     <row r="12">
       <c r="A12" s="5">
         <v>4.0</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C12" s="5">
         <v>0.0</v>
@@ -4525,8 +4628,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="R12" t="str">
-        <f t="array" ref="R12">TTEST({C8:E8,C14:E14,C29:E29,C35:E35,C38:E38},{C5:E5,C11:E11,C17:E17,C20:E20,C23:E23}, 2, 1)</f>
+      <c r="S12" t="str">
+        <f t="array" ref="S12">TTEST({C8:E8,C14:E14,C29:E29,C35:E35,C38:E38},{C5:E5,C11:E11,C17:E17,C20:E20,C23:E23}, 2, 1)</f>
         <v>0.3517629323</v>
       </c>
     </row>
@@ -4535,7 +4638,7 @@
         <v>4.0</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C13" s="5">
         <v>5.0</v>
@@ -4549,6 +4652,10 @@
       <c r="F13" t="str">
         <f t="shared" si="1"/>
         <v>5</v>
+      </c>
+      <c r="S13" t="str">
+        <f t="array" ref="S13">TTEST({G8,G14,G29,G35,G38},{G5,G11,G17,G20,G23}, 2, 1)</f>
+        <v>0.5892447858</v>
       </c>
     </row>
     <row r="14">
@@ -4556,7 +4663,7 @@
         <v>4.0</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C14" s="5">
         <v>17.0</v>
@@ -4569,6 +4676,10 @@
       </c>
       <c r="F14" t="str">
         <f t="shared" si="1"/>
+        <v>14.66666667</v>
+      </c>
+      <c r="G14" t="str">
+        <f>AVERAGE((C14-F12),(D14-F12),(E14-F12))</f>
         <v>14.66666667</v>
       </c>
     </row>
@@ -4577,7 +4688,7 @@
         <v>5.0</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C15" s="5">
         <v>0.0</v>
@@ -4598,7 +4709,7 @@
         <v>5.0</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C16" s="5">
         <v>12.0</v>
@@ -4619,7 +4730,7 @@
         <v>5.0</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C17" s="5">
         <v>6.0</v>
@@ -4632,6 +4743,10 @@
       </c>
       <c r="F17" t="str">
         <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="G17" t="str">
+        <f>AVERAGE((C17-F15),(D17-F15),(E17-F15))</f>
         <v>10</v>
       </c>
     </row>
@@ -4640,7 +4755,7 @@
         <v>6.0</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C18" s="5">
         <v>0.0</v>
@@ -4661,7 +4776,7 @@
         <v>6.0</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C19" s="5">
         <v>2.0</v>
@@ -4682,7 +4797,7 @@
         <v>6.0</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C20" s="5">
         <v>17.0</v>
@@ -4695,6 +4810,10 @@
       </c>
       <c r="F20" t="str">
         <f t="shared" si="1"/>
+        <v>14.66666667</v>
+      </c>
+      <c r="G20" t="str">
+        <f>AVERAGE((C20-F18),(D20-F18),(E20-F18))</f>
         <v>14.66666667</v>
       </c>
     </row>
@@ -4703,7 +4822,7 @@
         <v>7.0</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C21" s="5">
         <v>0.0</v>
@@ -4718,8 +4837,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G21" s="5" t="s">
-        <v>104</v>
+      <c r="H21" s="5" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="22">
@@ -4727,7 +4846,7 @@
         <v>7.0</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C22" s="5">
         <v>8.0</v>
@@ -4742,13 +4861,14 @@
         <f t="shared" si="1"/>
         <v>5.333333333</v>
       </c>
+      <c r="G22" s="5"/>
     </row>
     <row r="23">
       <c r="A23" s="6">
         <v>7.0</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C23" s="5">
         <v>8.0</v>
@@ -4761,6 +4881,10 @@
       </c>
       <c r="F23" t="str">
         <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="G23" t="str">
+        <f>AVERAGE((C23-F21),(D23-F21),(E23-F21))</f>
         <v>9</v>
       </c>
     </row>
@@ -4769,7 +4893,7 @@
         <v>8.0</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C24" s="5">
         <v>0.0</v>
@@ -4790,7 +4914,7 @@
         <v>8.0</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C25" s="5">
         <v>4.0</v>
@@ -4805,13 +4929,14 @@
         <f t="shared" si="1"/>
         <v>3.333333333</v>
       </c>
+      <c r="G25" s="5"/>
     </row>
     <row r="26">
       <c r="A26" s="5">
         <v>8.0</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C26" s="5">
         <v>14.0</v>
@@ -4824,6 +4949,10 @@
       </c>
       <c r="F26" t="str">
         <f t="shared" si="1"/>
+        <v>11.66666667</v>
+      </c>
+      <c r="G26" t="str">
+        <f>AVERAGE((C26-F24),(D26-F24),(E26-F24))</f>
         <v>11.66666667</v>
       </c>
     </row>
@@ -4832,7 +4961,7 @@
         <v>9.0</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C27" s="5">
         <v>0.0</v>
@@ -4853,7 +4982,7 @@
         <v>9.0</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C28" s="5">
         <v>2.0</v>
@@ -4868,8 +4997,8 @@
         <f t="shared" si="1"/>
         <v>2.666666667</v>
       </c>
-      <c r="G28" s="5" t="s">
-        <v>105</v>
+      <c r="H28" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="29">
@@ -4877,7 +5006,7 @@
         <v>9.0</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C29" s="5">
         <v>11.0</v>
@@ -4890,6 +5019,10 @@
       </c>
       <c r="F29" t="str">
         <f t="shared" si="1"/>
+        <v>11.66666667</v>
+      </c>
+      <c r="G29" t="str">
+        <f>AVERAGE((C29-F27),(D29-F27),(E29-F27))</f>
         <v>11.66666667</v>
       </c>
     </row>
@@ -4898,7 +5031,7 @@
         <v>10.0</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C30" s="12">
         <v>0.0</v>
@@ -4913,7 +5046,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G30" s="16"/>
+      <c r="G30" s="12"/>
       <c r="H30" s="16"/>
       <c r="I30" s="16"/>
       <c r="J30" s="16"/>
@@ -4936,13 +5069,17 @@
       <c r="AA30" s="16"/>
       <c r="AB30" s="16"/>
       <c r="AC30" s="16"/>
+      <c r="AD30" s="16"/>
+      <c r="AE30" s="16"/>
+      <c r="AF30" s="16"/>
+      <c r="AG30" s="16"/>
     </row>
     <row r="31">
       <c r="A31" s="12">
         <v>10.0</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
@@ -4974,13 +5111,17 @@
       <c r="AA31" s="16"/>
       <c r="AB31" s="16"/>
       <c r="AC31" s="16"/>
+      <c r="AD31" s="16"/>
+      <c r="AE31" s="16"/>
+      <c r="AF31" s="16"/>
+      <c r="AG31" s="16"/>
     </row>
     <row r="32">
       <c r="A32" s="12">
         <v>10.0</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
@@ -5012,13 +5153,17 @@
       <c r="AA32" s="16"/>
       <c r="AB32" s="16"/>
       <c r="AC32" s="16"/>
+      <c r="AD32" s="16"/>
+      <c r="AE32" s="16"/>
+      <c r="AF32" s="16"/>
+      <c r="AG32" s="16"/>
     </row>
     <row r="33">
       <c r="A33" s="6">
         <v>11.0</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C33" s="5">
         <v>0.0</v>
@@ -5032,6 +5177,9 @@
       <c r="F33" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="34">
@@ -5039,7 +5187,7 @@
         <v>11.0</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C34" s="5">
         <v>7.0</v>
@@ -5053,6 +5201,13 @@
       <c r="F34" t="str">
         <f t="shared" si="1"/>
         <v>6</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="J34" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="35">
@@ -5060,7 +5215,7 @@
         <v>11.0</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C35" s="5">
         <v>10.0</v>
@@ -5075,8 +5230,23 @@
         <f t="shared" si="1"/>
         <v>8.333333333</v>
       </c>
-      <c r="G35" s="5" t="s">
-        <v>106</v>
+      <c r="G35" t="str">
+        <f>AVERAGE((C35-F33),(D35-F33),(E35-F33))</f>
+        <v>8.333333333</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="J35" t="str">
+        <f>STDEV((F7/F6),(F13/F12),(F28/F27),(F34/F33),(F37/F36))*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K35" t="str">
+        <f>STDEV((F4/F3),(F10/F9),(F16/F15),(F19/F18),(F22/F21),(F25/F24),(F40/F39),(F43/F42))*100</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="36">
@@ -5084,7 +5254,7 @@
         <v>12.0</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C36" s="5">
         <v>0.0</v>
@@ -5098,6 +5268,17 @@
       <c r="F36" t="str">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="J36" t="str">
+        <f>STDEV((F8/F6),(F14/F12),(F29/F27),(F35/F33),(F38/F36))*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K36" t="str">
+        <f>STDEV((F5/F3),(F11/F9),(F17/F15),(F20/F18),(F23/F21),(F26/F24),(F41/F39),(F44/F42))*100</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="37">
@@ -5105,7 +5286,7 @@
         <v>12.0</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C37" s="5">
         <v>9.0</v>
@@ -5119,6 +5300,17 @@
       <c r="F37" t="str">
         <f t="shared" si="1"/>
         <v>5.666666667</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="J37" t="str">
+        <f>STDEV((F8/F7),(F14/F13),(F29/F28),(F35/F34),(F38/F37))*100</f>
+        <v>160.1557402</v>
+      </c>
+      <c r="K37" t="str">
+        <f>STDEV((F5/F4),(F11/F10),(F17/F16),(F20/F19),(F23/F22),(F26/F25),(F41/F40),(F44/F43))*100</f>
+        <v>528.5905581</v>
       </c>
     </row>
     <row r="38">
@@ -5126,7 +5318,7 @@
         <v>12.0</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C38" s="5">
         <v>13.0</v>
@@ -5139,6 +5331,10 @@
       </c>
       <c r="F38" t="str">
         <f t="shared" si="1"/>
+        <v>11.33333333</v>
+      </c>
+      <c r="G38" t="str">
+        <f>AVERAGE((C38-F36),(D38-F36),(E38-F36))</f>
         <v>11.33333333</v>
       </c>
     </row>
@@ -5147,7 +5343,7 @@
         <v>13.0</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C39" s="5">
         <v>0.0</v>
@@ -5168,7 +5364,7 @@
         <v>13.0</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C40" s="5">
         <v>3.0</v>
@@ -5189,7 +5385,7 @@
         <v>13.0</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C41" s="5">
         <v>1.0</v>
@@ -5202,6 +5398,10 @@
       </c>
       <c r="F41" t="str">
         <f t="shared" si="1"/>
+        <v>5.333333333</v>
+      </c>
+      <c r="G41" t="str">
+        <f>AVERAGE((C41-F39),(D41-F39),(E41-F39))</f>
         <v>5.333333333</v>
       </c>
     </row>
@@ -5210,7 +5410,7 @@
         <v>14.0</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C42" s="5">
         <v>0.0</v>
@@ -5231,7 +5431,7 @@
         <v>14.0</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C43" s="5">
         <v>0.0</v>
@@ -5252,7 +5452,7 @@
         <v>14.0</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C44" s="5">
         <v>10.0</v>
@@ -5267,8 +5467,12 @@
         <f t="shared" si="1"/>
         <v>5.666666667</v>
       </c>
-      <c r="G44" s="5" t="s">
-        <v>107</v>
+      <c r="G44" t="str">
+        <f>AVERAGE((C44-F42),(D44-F42),(E44-F42))</f>
+        <v>5.666666667</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="45">
@@ -5293,12 +5497,14 @@
       <c r="E47" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:G1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="D1:H1"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -5324,93 +5530,105 @@
     <col customWidth="1" min="8" max="8" width="8.86"/>
     <col customWidth="1" min="9" max="9" width="14.14"/>
     <col customWidth="1" min="10" max="10" width="15.43"/>
-    <col customWidth="1" min="11" max="11" width="50.29"/>
-    <col customWidth="1" min="12" max="12" width="29.43"/>
-    <col customWidth="1" min="15" max="15" width="46.43"/>
-    <col customWidth="1" min="19" max="19" width="26.43"/>
-    <col customWidth="1" min="20" max="20" width="29.0"/>
+    <col customWidth="1" min="11" max="11" width="16.43"/>
+    <col customWidth="1" min="12" max="12" width="50.29"/>
+    <col customWidth="1" min="13" max="13" width="29.43"/>
+    <col customWidth="1" min="16" max="16" width="46.43"/>
+    <col customWidth="1" min="20" max="20" width="26.43"/>
+    <col customWidth="1" min="21" max="21" width="29.0"/>
+    <col customWidth="1" min="24" max="24" width="31.29"/>
+    <col customWidth="1" min="25" max="25" width="16.0"/>
+    <col customWidth="1" min="26" max="26" width="31.29"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="K1" s="2"/>
-      <c r="L1" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="P1" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="T1" s="19" t="s">
-        <v>70</v>
-      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="U1" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
     </row>
     <row r="2">
       <c r="A2" s="3" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="H2" s="32" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3" t="s">
-        <v>78</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" s="3"/>
       <c r="N2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="O2" s="3"/>
+        <v>65</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="P2" s="3"/>
-      <c r="Q2" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="Q2" s="3"/>
       <c r="R2" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>78</v>
+        <v>65</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="V2" s="3" t="s">
-        <v>79</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y2" s="3"/>
+      <c r="Z2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="6">
         <v>1.0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C3" s="5">
         <v>21.0</v>
@@ -5438,27 +5656,27 @@
         <f t="shared" ref="J3:J44" si="2">AVERAGE(F3,G3,H3)</f>
         <v>0</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="M3" t="str">
+      <c r="M3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="N3" t="str">
         <f>ROUND(AVERAGE((I7/I6),(I13/I12),(I28/I27),(I34/I33),(I37/I36))*100, 1)</f>
         <v>157.6</v>
       </c>
-      <c r="N3" t="str">
+      <c r="O3" t="str">
         <f>ROUND(AVERAGE((I4/I3),(I10/I9),(I16/I15),(I19/I18),(I22/I21),(I25/I24),(I40/I39),(I43/I42))*100,1)</f>
         <v>143.8</v>
       </c>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q3" t="str">
-        <f t="shared" ref="Q3:Q5" si="3">ROUND(AVERAGE(C6:E6,C12:E12,C27:E27,C33:E33,C36:E36),1)</f>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="R3" t="str">
+        <f t="shared" ref="R3:R5" si="3">ROUND(AVERAGE(C6:E6,C12:E12,C27:E27,C33:E33,C36:E36),1)</f>
         <v>20.9</v>
       </c>
-      <c r="R3" t="str">
-        <f t="shared" ref="R3:R5" si="4">ROUND(AVERAGE(C3:E3,C9:E9,C15:E15,C18:E18,C21:E21,C24:E24,C39:E39,C42:E42),1)</f>
+      <c r="S3" t="str">
+        <f t="shared" ref="S3:S5" si="4">ROUND(AVERAGE(C3:E3,C9:E9,C15:E15,C18:E18,C21:E21,C24:E24,C39:E39,C42:E42),1)</f>
         <v>20.7</v>
       </c>
     </row>
@@ -5467,7 +5685,7 @@
         <v>1.0</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C4" s="5">
         <v>30.0</v>
@@ -5495,37 +5713,37 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L4" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="M4" t="str">
+      <c r="M4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="N4" t="str">
         <f>ROUND(AVERAGE((I8/I6),(I14/I12),(I29/I27),(I35/I33),(I38/I36))*100, 1)</f>
         <v>194.7</v>
       </c>
-      <c r="N4" t="str">
+      <c r="O4" t="str">
         <f>ROUND(AVERAGE((I5/I3),(I11/I9),(I17/I15),(I20/I18),(I23/I21),(I26/I24),(I41/I39),(I44/I42))*100,1)</f>
         <v>165.8</v>
       </c>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q4" t="str">
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="R4" t="str">
         <f t="shared" si="3"/>
         <v>33</v>
       </c>
-      <c r="R4" t="str">
+      <c r="S4" t="str">
         <f t="shared" si="4"/>
         <v>29.6</v>
       </c>
-      <c r="T4" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="U4" t="str">
-        <f t="shared" ref="U4:V4" si="5">SUM(Q4/Q3*100)</f>
+      <c r="U4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="V4" t="str">
+        <f t="shared" ref="V4:W4" si="5">SUM(R4/R3*100)</f>
         <v>157.8947368</v>
       </c>
-      <c r="V4" t="str">
+      <c r="W4" t="str">
         <f t="shared" si="5"/>
         <v>142.9951691</v>
       </c>
@@ -5535,7 +5753,7 @@
         <v>1.0</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C5" s="5">
         <v>37.0</v>
@@ -5563,37 +5781,41 @@
         <f t="shared" si="2"/>
         <v>0.3333333333</v>
       </c>
-      <c r="L5" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="M5" t="str">
+      <c r="K5" t="str">
+        <f>AVERAGE((C5-I3),(D5-I3),(E5-I3))</f>
+        <v>12.33333333</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="N5" t="str">
         <f>ROUND(AVERAGE((I8/I7), (I14/I13),(I29/I28),(I35/I34),(I38/I37))*100,1)</f>
         <v>124.7</v>
       </c>
-      <c r="N5" t="str">
+      <c r="O5" t="str">
         <f>ROUND(AVERAGE((I5/I4),(I11/I10),(I17/I16),(I20/I19),(I23/I22),(I26/I25),(I41/I40),(I44/I43))*100,1)</f>
         <v>115.4</v>
       </c>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q5" t="str">
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="R5" t="str">
         <f t="shared" si="3"/>
         <v>40.7</v>
       </c>
-      <c r="R5" t="str">
+      <c r="S5" t="str">
         <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="T5" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="U5" t="str">
-        <f t="shared" ref="U5:V5" si="6">SUM(Q5/Q3*100)</f>
+      <c r="U5" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V5" t="str">
+        <f t="shared" ref="V5:W5" si="6">SUM(R5/R3*100)</f>
         <v>194.7368421</v>
       </c>
-      <c r="V5" t="str">
+      <c r="W5" t="str">
         <f t="shared" si="6"/>
         <v>164.2512077</v>
       </c>
@@ -5603,7 +5825,7 @@
         <v>2.0</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C6" s="5">
         <v>22.0</v>
@@ -5631,14 +5853,14 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T6" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="U6" t="str">
-        <f t="shared" ref="U6:V6" si="7">SUM(Q5/Q4*100)</f>
+      <c r="U6" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="V6" t="str">
+        <f t="shared" ref="V6:W6" si="7">SUM(R5/R4*100)</f>
         <v>123.3333333</v>
       </c>
-      <c r="V6" t="str">
+      <c r="W6" t="str">
         <f t="shared" si="7"/>
         <v>114.8648649</v>
       </c>
@@ -5648,7 +5870,7 @@
         <v>2.0</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C7" s="5">
         <v>39.0</v>
@@ -5682,7 +5904,7 @@
         <v>2.0</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C8" s="5">
         <v>48.0</v>
@@ -5710,13 +5932,17 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="K8" t="str">
+        <f>AVERAGE((C8-I6),(D8-I6),(E8-I6))</f>
+        <v>25</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="6">
         <v>3.0</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C9" s="5">
         <v>19.0</v>
@@ -5750,7 +5976,7 @@
         <v>3.0</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C10" s="5">
         <v>26.0</v>
@@ -5778,8 +6004,9 @@
         <f t="shared" si="2"/>
         <v>1.666666667</v>
       </c>
-      <c r="K10" s="5" t="s">
-        <v>118</v>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="11">
@@ -5787,7 +6014,7 @@
         <v>3.0</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C11" s="5">
         <v>32.0</v>
@@ -5815,13 +6042,20 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="K11" t="str">
+        <f>AVERAGE((C11-I9),(D11-I9),(E11-I9))</f>
+        <v>12.66666667</v>
+      </c>
+      <c r="V11" s="3" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="5">
         <v>4.0</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C12" s="5">
         <v>22.0</v>
@@ -5849,13 +6083,24 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="V12" t="str">
+        <f t="array" ref="V12">TTEST({C8:E8,C14:E14,C29:E29,C35:E35,C38:E38},{C5:E5,C11:E11,C17:E17,C20:E20,C23:E23}, 2, 1)</f>
+        <v>0.002395531811</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y12" s="33" t="str">
+        <f t="array" ref="Y12">NORMDIST({C8:E8,C14:E14,C29:E29,C35:E35,C38:E38},40.7,STDEV(C8:E8,C14:E14,C29:E29,C35:E35,C38:E38), FALSE)</f>
+        <v>0.02743574946</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5">
         <v>4.0</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C13" s="5">
         <v>40.0</v>
@@ -5883,13 +6128,24 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="V13" t="str">
+        <f t="array" ref="V13">TTEST({K8,K14,K29,K35,K38},{K5,K11,K17,K20,K23}, 2, 1)</f>
+        <v>0.02135787347</v>
+      </c>
+      <c r="X13" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y13" t="str">
+        <f t="array" ref="Y13">NORMDIST({C5:E5,C11:E11,C17:E17,C20:E20,C23:E23},34,STDEV(C5:E5,C11:E11,C17:E17,C20:E20,C23:E23), FALSE)</f>
+        <v>0.06711182523</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="5">
         <v>4.0</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C14" s="5">
         <v>47.0</v>
@@ -5917,13 +6173,18 @@
         <f t="shared" si="2"/>
         <v>0.3333333333</v>
       </c>
+      <c r="K14" t="str">
+        <f>AVERAGE((C14-I12),(D14-I12),(E14-I12))</f>
+        <v>22</v>
+      </c>
+      <c r="V14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" s="6">
         <v>5.0</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C15" s="5">
         <v>17.0</v>
@@ -5957,7 +6218,7 @@
         <v>5.0</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C16" s="5">
         <v>30.0</v>
@@ -5991,7 +6252,7 @@
         <v>5.0</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C17" s="5">
         <v>34.0</v>
@@ -6019,13 +6280,17 @@
         <f t="shared" si="2"/>
         <v>0.3333333333</v>
       </c>
+      <c r="K17" t="str">
+        <f>AVERAGE((C17-I15),(D17-I15),(E17-I15))</f>
+        <v>13.33333333</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="5">
         <v>6.0</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C18" s="5">
         <v>24.0</v>
@@ -6059,7 +6324,7 @@
         <v>6.0</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C19" s="5">
         <v>34.0</v>
@@ -6093,7 +6358,7 @@
         <v>6.0</v>
       </c>
       <c r="B20" s="26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C20" s="5">
         <v>38.0</v>
@@ -6121,8 +6386,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K20" s="5" t="s">
-        <v>119</v>
+      <c r="K20" t="str">
+        <f>AVERAGE((C20-I18),(D20-I18),(E20-I18))</f>
+        <v>9.666666667</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="21">
@@ -6130,7 +6399,7 @@
         <v>7.0</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C21" s="5">
         <v>27.0</v>
@@ -6164,7 +6433,7 @@
         <v>7.0</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C22" s="5">
         <v>39.0</v>
@@ -6198,7 +6467,7 @@
         <v>7.0</v>
       </c>
       <c r="B23" s="26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C23" s="5">
         <v>41.0</v>
@@ -6226,13 +6495,17 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="K23" t="str">
+        <f>AVERAGE((C23-I21),(D23-I21),(E23-I21))</f>
+        <v>14.33333333</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="5">
         <v>8.0</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C24" s="5">
         <v>22.0</v>
@@ -6266,7 +6539,7 @@
         <v>8.0</v>
       </c>
       <c r="B25" s="25" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C25" s="5">
         <v>32.0</v>
@@ -6300,7 +6573,7 @@
         <v>8.0</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C26" s="5">
         <v>40.0</v>
@@ -6328,13 +6601,17 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="K26" t="str">
+        <f>AVERAGE((C26-I24),(D26-I24),(E26-I24))</f>
+        <v>14.66666667</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="6">
         <v>9.0</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C27" s="5">
         <v>20.0</v>
@@ -6368,7 +6645,7 @@
         <v>9.0</v>
       </c>
       <c r="B28" s="25" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C28" s="5">
         <v>34.0</v>
@@ -6402,7 +6679,7 @@
         <v>9.0</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C29" s="5">
         <v>46.0</v>
@@ -6430,13 +6707,17 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="K29" t="str">
+        <f>AVERAGE((C29-I27),(D29-I27),(E29-I27))</f>
+        <v>22</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="12">
         <v>10.0</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C30" s="12">
         <v>30.0</v>
@@ -6487,13 +6768,14 @@
       <c r="AE30" s="16"/>
       <c r="AF30" s="16"/>
       <c r="AG30" s="16"/>
+      <c r="AH30" s="16"/>
     </row>
     <row r="31">
       <c r="A31" s="12">
         <v>10.0</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
@@ -6538,13 +6820,14 @@
       <c r="AE31" s="16"/>
       <c r="AF31" s="16"/>
       <c r="AG31" s="16"/>
+      <c r="AH31" s="16"/>
     </row>
     <row r="32">
       <c r="A32" s="12">
         <v>10.0</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
@@ -6589,13 +6872,14 @@
       <c r="AE32" s="16"/>
       <c r="AF32" s="16"/>
       <c r="AG32" s="16"/>
+      <c r="AH32" s="16"/>
     </row>
     <row r="33">
       <c r="A33" s="6">
         <v>11.0</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C33" s="5">
         <v>20.0</v>
@@ -6629,7 +6913,7 @@
         <v>11.0</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C34" s="5">
         <v>31.0</v>
@@ -6663,7 +6947,7 @@
         <v>11.0</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C35" s="5">
         <v>37.0</v>
@@ -6691,13 +6975,17 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="K35" t="str">
+        <f>AVERAGE((C35-I33),(D35-I33),(E35-I33))</f>
+        <v>14.66666667</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="5">
         <v>12.0</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C36" s="5">
         <v>21.0</v>
@@ -6731,7 +7019,7 @@
         <v>12.0</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C37" s="5">
         <v>28.0</v>
@@ -6765,7 +7053,7 @@
         <v>12.0</v>
       </c>
       <c r="B38" s="26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C38" s="5">
         <v>40.0</v>
@@ -6793,13 +7081,17 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
+      <c r="K38" t="str">
+        <f>AVERAGE((C38-I36),(D38-I36),(E38-I36))</f>
+        <v>15.33333333</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="6">
         <v>13.0</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C39" s="5">
         <v>19.0</v>
@@ -6833,7 +7125,7 @@
         <v>13.0</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C40" s="5">
         <v>27.0</v>
@@ -6867,7 +7159,7 @@
         <v>13.0</v>
       </c>
       <c r="B41" s="26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C41" s="5">
         <v>34.0</v>
@@ -6895,13 +7187,17 @@
         <f t="shared" si="2"/>
         <v>0.6666666667</v>
       </c>
+      <c r="K41" t="str">
+        <f>AVERAGE((C41-I39),(D41-I39),(E41-I39))</f>
+        <v>14.33333333</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="5">
         <v>14.0</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
       <c r="C42" s="5">
         <v>19.0</v>
@@ -6935,7 +7231,7 @@
         <v>14.0</v>
       </c>
       <c r="B43" s="25" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="C43" s="5">
         <v>35.0</v>
@@ -6969,7 +7265,7 @@
         <v>14.0</v>
       </c>
       <c r="B44" s="26" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="C44" s="5">
         <v>37.0</v>
@@ -6996,6 +7292,10 @@
       <c r="J44" t="str">
         <f t="shared" si="2"/>
         <v>0</v>
+      </c>
+      <c r="K44" t="str">
+        <f>AVERAGE((C44-I42),(D44-I42),(E44-I42))</f>
+        <v>15</v>
       </c>
     </row>
     <row r="45">
@@ -7009,6 +7309,7 @@
       <c r="I45" s="5"/>
       <c r="J45" s="5"/>
       <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
     </row>
     <row r="46">
       <c r="A46" s="5"/>
@@ -7021,6 +7322,7 @@
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
     </row>
     <row r="47">
       <c r="A47" s="5"/>
@@ -7033,14 +7335,15 @@
       <c r="I47" s="5"/>
       <c r="J47" s="5"/>
       <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:J1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="U1:W1"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
